--- a/fhir/core/StructureDefinition-dk-core-basic-observation.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-basic-observation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T21:51:35+01:00</t>
+    <t>2024-05-06T15:28:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1267,7 +1267,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.dk/fhir/core/StructureDefinition/dk-core-practitioner|http://hl7.dk/fhir/core/StructureDefinition/dk-core-organization|http://hl7.dk/fhir/core/StructureDefinition/dk-core-patient|PractitionerRole|CareTeam|RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.dk/fhir/core/StructureDefinition/dk-core-practitioner|http://hl7.dk/fhir/core/StructureDefinition/dk-core-organization|http://hl7.dk/fhir/core/StructureDefinition/dk-core-patient|PractitionerRole|CareTeam|http://hl7.dk/fhir/core/StructureDefinition/dk-core-related-person)
 </t>
   </si>
   <si>
@@ -2609,7 +2609,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="220.53515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/fhir/core/StructureDefinition-dk-core-basic-observation.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-basic-observation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:28:33+02:00</t>
+    <t>2024-12-11T09:54:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1952,7 +1952,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/fhir/core/StructureDefinition-dk-core-basic-observation.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-basic-observation.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T09:54:35+01:00</t>
+    <t>2024-12-11T10:20:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-dk-core-basic-observation.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-basic-observation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7050" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7050" uniqueCount="735">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T10:20:02+01:00</t>
+    <t>2025-02-01T19:23:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1122,7 +1122,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.dk/fhir/core/StructureDefinition/dk-core-patient|Group|Location|Device)
+    <t xml:space="preserve">Reference(http://hl7.dk/fhir/core/StructureDefinition/dk-core-patient|Group|http://hl7.dk/fhir/core/StructureDefinition/dk-core-location|Device)
 </t>
   </si>
   <si>
@@ -1267,7 +1267,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.dk/fhir/core/StructureDefinition/dk-core-practitioner|http://hl7.dk/fhir/core/StructureDefinition/dk-core-organization|http://hl7.dk/fhir/core/StructureDefinition/dk-core-patient|PractitionerRole|CareTeam|http://hl7.dk/fhir/core/StructureDefinition/dk-core-related-person)
+    <t xml:space="preserve">Reference(http://hl7.dk/fhir/core/StructureDefinition/dk-core-practitioner|http://hl7.dk/fhir/core/StructureDefinition/dk-core-organization|http://hl7.dk/fhir/core/StructureDefinition/dk-core-patient|http://hl7.dk/fhir/core/StructureDefinition/dk-core-practitioner-role|CareTeam|http://hl7.dk/fhir/core/StructureDefinition/dk-core-related-person)
 </t>
   </si>
   <si>
@@ -1682,6 +1682,9 @@
   </si>
   <si>
     <t>Observation.method.coding.system</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct|http://snomed.info/sct/554471000005108</t>
   </si>
   <si>
     <t>Observation.method.coding:SCTCode.version</t>
@@ -14032,7 +14035,7 @@
         <v>82</v>
       </c>
       <c r="S95" t="s" s="2">
-        <v>298</v>
+        <v>539</v>
       </c>
       <c r="T95" t="s" s="2">
         <v>82</v>
@@ -14106,10 +14109,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14226,10 +14229,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14346,10 +14349,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14466,10 +14469,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14588,10 +14591,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14710,10 +14713,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14736,16 +14739,16 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14795,7 +14798,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14813,27 +14816,27 @@
         <v>82</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14856,16 +14859,16 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14915,7 +14918,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14933,27 +14936,27 @@
         <v>82</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14976,19 +14979,19 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -15037,7 +15040,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -15049,7 +15052,7 @@
         <v>82</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>82</v>
@@ -15058,10 +15061,10 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -15072,10 +15075,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15190,10 +15193,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15310,14 +15313,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15339,10 +15342,10 @@
         <v>139</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>142</v>
@@ -15397,7 +15400,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15432,10 +15435,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15458,13 +15461,13 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15515,7 +15518,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15524,7 +15527,7 @@
         <v>93</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>105</v>
@@ -15536,10 +15539,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15550,10 +15553,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15576,13 +15579,13 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15633,7 +15636,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15642,7 +15645,7 @@
         <v>93</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>105</v>
@@ -15654,10 +15657,10 @@
         <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15668,10 +15671,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15697,16 +15700,16 @@
         <v>191</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15734,10 +15737,10 @@
         <v>117</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>82</v>
@@ -15755,7 +15758,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15773,10 +15776,10 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>498</v>
@@ -15790,10 +15793,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15819,16 +15822,16 @@
         <v>191</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15856,10 +15859,10 @@
         <v>207</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>82</v>
@@ -15877,7 +15880,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15895,10 +15898,10 @@
         <v>82</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>498</v>
@@ -15912,10 +15915,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15938,17 +15941,17 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15997,7 +16000,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -16021,7 +16024,7 @@
         <v>82</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -16032,10 +16035,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16061,10 +16064,10 @@
         <v>217</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16115,7 +16118,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16136,10 +16139,10 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -16150,10 +16153,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16176,16 +16179,16 @@
         <v>94</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16235,7 +16238,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16256,10 +16259,10 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -16270,10 +16273,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16296,16 +16299,16 @@
         <v>94</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16355,7 +16358,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16376,10 +16379,10 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16390,10 +16393,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16416,19 +16419,19 @@
         <v>94</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16477,7 +16480,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16498,10 +16501,10 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16512,10 +16515,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16630,10 +16633,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16750,14 +16753,14 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16779,10 +16782,10 @@
         <v>139</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>142</v>
@@ -16837,7 +16840,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16872,10 +16875,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16901,13 +16904,13 @@
         <v>191</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>206</v>
@@ -16959,7 +16962,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>93</v>
@@ -16977,7 +16980,7 @@
         <v>82</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>212</v>
@@ -16994,10 +16997,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17112,10 +17115,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17232,10 +17235,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17352,10 +17355,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B123" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>239</v>
@@ -17476,10 +17479,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17594,10 +17597,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17714,10 +17717,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17836,10 +17839,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17956,10 +17959,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18076,10 +18079,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18196,10 +18199,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18318,10 +18321,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C131" t="s" s="2">
         <v>292</v>
@@ -18442,10 +18445,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18560,10 +18563,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18680,10 +18683,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18802,10 +18805,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18922,10 +18925,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19042,10 +19045,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19162,10 +19165,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19284,10 +19287,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>304</v>
@@ -19408,10 +19411,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19526,10 +19529,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19646,10 +19649,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19768,10 +19771,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19888,10 +19891,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20008,10 +20011,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20128,10 +20131,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20250,10 +20253,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C147" t="s" s="2">
         <v>316</v>
@@ -20374,10 +20377,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20492,10 +20495,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20612,10 +20615,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20734,10 +20737,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20854,10 +20857,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20974,10 +20977,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21094,10 +21097,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21216,10 +21219,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C155" t="s" s="2">
         <v>328</v>
@@ -21340,10 +21343,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21458,10 +21461,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21578,10 +21581,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21700,10 +21703,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21820,10 +21823,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21940,10 +21943,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22060,10 +22063,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22182,10 +22185,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C163" t="s" s="2">
         <v>339</v>
@@ -22213,7 +22216,7 @@
         <v>229</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M163" t="s" s="2">
         <v>231</v>
@@ -22306,10 +22309,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22424,10 +22427,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22544,10 +22547,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22666,10 +22669,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22786,10 +22789,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22906,10 +22909,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23026,10 +23029,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23148,10 +23151,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23270,10 +23273,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23299,13 +23302,13 @@
         <v>413</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M172" t="s" s="2">
         <v>415</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>417</v>
@@ -23355,7 +23358,7 @@
         <v>419</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23373,7 +23376,7 @@
         <v>82</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>422</v>
@@ -23390,10 +23393,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C173" t="s" s="2">
         <v>426</v>
@@ -23421,13 +23424,13 @@
         <v>427</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M173" t="s" s="2">
         <v>415</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>417</v>
@@ -23479,7 +23482,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -23497,7 +23500,7 @@
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>422</v>
@@ -23514,10 +23517,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23632,10 +23635,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23752,10 +23755,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23874,10 +23877,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23996,10 +23999,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24116,10 +24119,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24234,10 +24237,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24356,10 +24359,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24385,13 +24388,13 @@
         <v>191</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>483</v>
@@ -24443,7 +24446,7 @@
         <v>82</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -24478,10 +24481,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24565,7 +24568,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -24600,10 +24603,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24629,16 +24632,16 @@
         <v>83</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -24687,7 +24690,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
@@ -24708,10 +24711,10 @@
         <v>82</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>82</v>

--- a/fhir/core/StructureDefinition-dk-core-basic-observation.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-basic-observation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -380,7 +380,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -516,7 +516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -545,7 +545,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -636,7 +636,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -670,7 +670,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -978,7 +978,7 @@
     <t>Observation.code.coding:NPU.system</t>
   </si>
   <si>
-    <t>urn:oid:1.2.208.176.2.1</t>
+    <t>http://npu-terminology.org</t>
   </si>
   <si>
     <t>Observation.code.coding:NPU.version</t>
@@ -1153,7 +1153,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1176,7 +1176,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1462,9 +1462,6 @@
     <t>http://unitsofmeasure.org</t>
   </si>
   <si>
-    <t>http://hl7.dk/fhir/core/ValueSet/dk-core-UCUM-BasicUnits</t>
-  </si>
-  <si>
     <t>Quantity.system</t>
   </si>
   <si>
@@ -1493,6 +1490,9 @@
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
+    <t>http://hl7.dk/fhir/core/ValueSet/dk-core-UCUM-BasicUnits</t>
+  </si>
+  <si>
     <t>Quantity.code</t>
   </si>
   <si>
@@ -1518,7 +1518,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1550,7 +1550,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1606,7 +1606,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1639,7 +1639,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1717,7 +1717,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1745,7 +1745,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1825,7 +1825,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1875,7 +1875,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1908,7 +1908,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1945,7 +1945,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1967,7 +1967,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -2602,15 +2602,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.32421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.6015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.5859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.33984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.44140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2621,28 +2621,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.30078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.24609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.15625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.0234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.015625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="88.625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="33.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12482,38 +12482,40 @@
         <v>82</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="Y82" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF82" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AA82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF82" t="s" s="2">
+      <c r="AG82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI82" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>105</v>
@@ -12528,7 +12530,7 @@
         <v>459</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12539,10 +12541,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B83" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12568,16 +12570,16 @@
         <v>113</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12602,13 +12604,11 @@
         <v>82</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>82</v>
+        <v>476</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -24180,38 +24180,40 @@
         <v>82</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="Y179" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y179" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF179" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AA179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF179" t="s" s="2">
+      <c r="AG179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI179" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AG179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH179" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI179" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>105</v>
@@ -24226,7 +24228,7 @@
         <v>459</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AO179" t="s" s="2">
         <v>82</v>
@@ -24266,16 +24268,16 @@
         <v>113</v>
       </c>
       <c r="L180" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M180" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M180" t="s" s="2">
+      <c r="N180" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="N180" t="s" s="2">
+      <c r="O180" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="O180" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>82</v>
@@ -24300,13 +24302,11 @@
         <v>82</v>
       </c>
       <c r="X180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y180" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="Y180" s="2"/>
       <c r="Z180" t="s" s="2">
-        <v>82</v>
+        <v>476</v>
       </c>
       <c r="AA180" t="s" s="2">
         <v>82</v>
